--- a/Competition Code/Auton Tests.xlsx
+++ b/Competition Code/Auton Tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>TANK_DRIVE_TIME &lt;LEFT&gt; &lt;RIGHT&gt; &lt;TIME (s)&gt;</t>
   </si>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,49 +642,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Competition Code/Auton Tests.xlsx
+++ b/Competition Code/Auton Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="13515" windowHeight="1815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Recommended Setting</t>
   </si>
   <si>
-    <t>Slight overshoot, not 'exact' but should be good enough</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>GYRO_DRIVE_STRAIGHT 60 0.65</t>
   </si>
   <si>
-    <t>Doesn’t correct at first or for small distances</t>
-  </si>
-  <si>
     <t>GYRO_STRAFE_STRAIGHT</t>
   </si>
   <si>
@@ -136,14 +130,54 @@
   </si>
   <si>
     <t>GYRO_DRIVE_STRAIGHT **FOR OVER THE RAMP settings***</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doesn’t correct at first or for small distances - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEGATIVE IS LEFT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slight overshoot, not 'exact' but should be good enough - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEGATIVE IS LEFT</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -476,14 +510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +572,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +586,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,7 +606,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,35 +630,35 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,11 +724,12 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Competition Code/Auton Tests.xlsx
+++ b/Competition Code/Auton Tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>TANK_DRIVE_TIME &lt;LEFT&gt; &lt;RIGHT&gt; &lt;TIME (s)&gt;</t>
   </si>
@@ -168,7 +168,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +181,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -202,13 +212,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,21 +678,33 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -693,30 +718,48 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
